--- a/data/processed/state_overviews/mississippi_overview.xlsx
+++ b/data/processed/state_overviews/mississippi_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>545</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Adams County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>5</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Alcorn County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>6</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Amite County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Attala County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>2</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Benton County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>2</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Bolivar County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>9</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Carroll County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Chickasaw County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>2</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Claiborne County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Clarke County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Clay County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>3</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Coahoma County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>11</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Copiah County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>4</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Covington County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>1</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>DeSoto County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>12</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Forrest County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>18</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>George County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>1</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Greene County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>1</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Hancock County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>4</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Harrison County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>36</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Hinds County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>128</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Holmes County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>2</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Humphreys County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>1</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>Itawamba County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>2</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>Jackson County</t>
         </is>
       </c>
-      <c r="B26">
-        <v>11</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>Jasper County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>1</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>Jefferson County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>3</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>Jefferson Davis County</t>
         </is>
       </c>
-      <c r="B29">
-        <v>1</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Jones County</t>
         </is>
       </c>
-      <c r="B30">
-        <v>7</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Kemper County</t>
         </is>
       </c>
-      <c r="B31">
-        <v>2</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>Lafayette County</t>
         </is>
       </c>
-      <c r="B32">
-        <v>9</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,8 +1458,10 @@
           <t>Lamar County</t>
         </is>
       </c>
-      <c r="B33">
-        <v>3</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,8 +1490,10 @@
           <t>Lauderdale County</t>
         </is>
       </c>
-      <c r="B34">
-        <v>26</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,8 +1522,10 @@
           <t>Leake County</t>
         </is>
       </c>
-      <c r="B35">
-        <v>1</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,8 +1554,10 @@
           <t>Lee County</t>
         </is>
       </c>
-      <c r="B36">
-        <v>30</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,8 +1586,10 @@
           <t>Leflore County</t>
         </is>
       </c>
-      <c r="B37">
-        <v>7</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1544,8 +1618,10 @@
           <t>Lincoln County</t>
         </is>
       </c>
-      <c r="B38">
-        <v>2</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1574,8 +1650,10 @@
           <t>Lowndes County</t>
         </is>
       </c>
-      <c r="B39">
-        <v>11</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1604,8 +1682,10 @@
           <t>Madison County</t>
         </is>
       </c>
-      <c r="B40">
-        <v>27</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1634,8 +1714,10 @@
           <t>Marion County</t>
         </is>
       </c>
-      <c r="B41">
-        <v>2</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1664,8 +1746,10 @@
           <t>Marshall County</t>
         </is>
       </c>
-      <c r="B42">
-        <v>5</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1694,8 +1778,10 @@
           <t>Monroe County</t>
         </is>
       </c>
-      <c r="B43">
-        <v>7</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1724,8 +1810,10 @@
           <t>Montgomery County</t>
         </is>
       </c>
-      <c r="B44">
-        <v>3</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1754,8 +1842,10 @@
           <t>Neshoba County</t>
         </is>
       </c>
-      <c r="B45">
-        <v>1</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1784,8 +1874,10 @@
           <t>Newton County</t>
         </is>
       </c>
-      <c r="B46">
-        <v>1</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1814,8 +1906,10 @@
           <t>Noxubee County</t>
         </is>
       </c>
-      <c r="B47">
-        <v>2</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1844,8 +1938,10 @@
           <t>Oktibbeha County</t>
         </is>
       </c>
-      <c r="B48">
-        <v>9</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1874,8 +1970,10 @@
           <t>Panola County</t>
         </is>
       </c>
-      <c r="B49">
-        <v>3</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1904,8 +2002,10 @@
           <t>Pearl River County</t>
         </is>
       </c>
-      <c r="B50">
-        <v>7</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1934,8 +2034,10 @@
           <t>Perry County</t>
         </is>
       </c>
-      <c r="B51">
-        <v>1</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1964,8 +2066,10 @@
           <t>Pike County</t>
         </is>
       </c>
-      <c r="B52">
-        <v>6</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1994,8 +2098,10 @@
           <t>Prentiss County</t>
         </is>
       </c>
-      <c r="B53">
-        <v>2</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2024,8 +2130,10 @@
           <t>Quitman County</t>
         </is>
       </c>
-      <c r="B54">
-        <v>1</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2054,8 +2162,10 @@
           <t>Rankin County</t>
         </is>
       </c>
-      <c r="B55">
-        <v>27</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2084,8 +2194,10 @@
           <t>Sharkey County</t>
         </is>
       </c>
-      <c r="B56">
-        <v>2</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2114,8 +2226,10 @@
           <t>Simpson County</t>
         </is>
       </c>
-      <c r="B57">
-        <v>6</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2144,8 +2258,10 @@
           <t>Stone County</t>
         </is>
       </c>
-      <c r="B58">
-        <v>2</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2174,8 +2290,10 @@
           <t>Sunflower County</t>
         </is>
       </c>
-      <c r="B59">
-        <v>5</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2204,8 +2322,10 @@
           <t>Tallahatchie County</t>
         </is>
       </c>
-      <c r="B60">
-        <v>4</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2234,8 +2354,10 @@
           <t>Tate County</t>
         </is>
       </c>
-      <c r="B61">
-        <v>3</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2264,8 +2386,10 @@
           <t>Tippah County</t>
         </is>
       </c>
-      <c r="B62">
-        <v>2</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2294,8 +2418,10 @@
           <t>Tishomingo County</t>
         </is>
       </c>
-      <c r="B63">
-        <v>1</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2324,8 +2450,10 @@
           <t>Tunica County</t>
         </is>
       </c>
-      <c r="B64">
-        <v>1</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2354,8 +2482,10 @@
           <t>Union County</t>
         </is>
       </c>
-      <c r="B65">
-        <v>4</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2384,8 +2514,10 @@
           <t>Warren County</t>
         </is>
       </c>
-      <c r="B66">
-        <v>12</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2414,8 +2546,10 @@
           <t>Washington County</t>
         </is>
       </c>
-      <c r="B67">
-        <v>20</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2444,8 +2578,10 @@
           <t>Wayne County</t>
         </is>
       </c>
-      <c r="B68">
-        <v>1</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2474,8 +2610,10 @@
           <t>Wilkinson County</t>
         </is>
       </c>
-      <c r="B69">
-        <v>2</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2504,8 +2642,10 @@
           <t>Winston County</t>
         </is>
       </c>
-      <c r="B70">
-        <v>1</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2534,8 +2674,10 @@
           <t>Yazoo County</t>
         </is>
       </c>
-      <c r="B71">
-        <v>7</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2564,27 +2706,29 @@
           <t>Issaquena County</t>
         </is>
       </c>
-      <c r="B72">
-        <v>0</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2594,27 +2738,29 @@
           <t>Yalobusha County</t>
         </is>
       </c>
-      <c r="B73">
-        <v>0</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2624,27 +2770,29 @@
           <t>Grenada County</t>
         </is>
       </c>
-      <c r="B74">
-        <v>0</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2654,27 +2802,61 @@
           <t>Walthall County</t>
         </is>
       </c>
-      <c r="B75">
-        <v>0</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>$855,145,071</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6.46%</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>-26.56%</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>74.13%</t>
         </is>
       </c>
     </row>
@@ -2729,8 +2911,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>101</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2759,8 +2943,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B3">
-        <v>201</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2789,8 +2975,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B4">
-        <v>152</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2819,8 +3007,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B5">
-        <v>91</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2849,8 +3039,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B6">
-        <v>545</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2924,8 +3116,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>173</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2954,8 +3148,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>146</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2984,8 +3180,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>94</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3014,8 +3212,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>35</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3044,8 +3244,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>55</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3074,8 +3276,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>42</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3104,8 +3308,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>545</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3179,8 +3385,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>40</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3209,8 +3417,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>52</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3239,8 +3449,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>25</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3269,8 +3481,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>61</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3299,8 +3513,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>9</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3329,8 +3545,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>155</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3359,8 +3577,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>2</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3389,8 +3609,10 @@
           <t>Mutual/Membership Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -3419,8 +3641,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B10">
-        <v>51</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3449,8 +3673,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B11">
-        <v>21</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3479,8 +3705,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B12">
-        <v>121</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3509,8 +3737,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B13">
-        <v>7</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3539,8 +3769,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B14">
-        <v>545</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/mississippi_overview.xlsx
+++ b/data/processed/state_overviews/mississippi_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,155 +431,155 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Adams County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$4,610,560</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-26.48%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-92.57%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alcorn County</t>
+          <t>Mississippi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>545</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$2,058,672</t>
+          <t>$855,145,071</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.11%</t>
+          <t>6.46%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-33.89%</t>
+          <t>-26.56%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>74.13%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Amite County</t>
+          <t>Adams County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$3,434,150</t>
+          <t>$4,610,560</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.62%</t>
+          <t>-26.48%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-46.86%</t>
+          <t>-92.57%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Attala County</t>
+          <t>Alcorn County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$2,742,593</t>
+          <t>$2,058,672</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.19%</t>
+          <t>22.11%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-82.65%</t>
+          <t>-33.89%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -591,135 +591,135 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Benton County</t>
+          <t>Amite County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$6,007,176</t>
+          <t>$3,434,150</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.11%</t>
+          <t>15.62%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-13.55%</t>
+          <t>-46.86%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bolivar County</t>
+          <t>Attala County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$26,871,077</t>
+          <t>$2,742,593</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.20%</t>
+          <t>7.19%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-8.33%</t>
+          <t>-82.65%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Carroll County</t>
+          <t>Benton County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$100,000</t>
+          <t>$6,007,176</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>36.57%</t>
+          <t>4.11%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-54.17%</t>
+          <t>-13.55%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chickasaw County</t>
+          <t>Bolivar County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$410,776</t>
+          <t>$26,871,077</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-23.10%</t>
+          <t>6.20%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-110.65%</t>
+          <t>-8.33%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Claiborne County</t>
+          <t>Carroll County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$15,223</t>
+          <t>$100,000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-5.66%</t>
+          <t>36.57%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-34.28%</t>
+          <t>-54.17%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -751,27 +751,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Clarke County</t>
+          <t>Chickasaw County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$2,540,626</t>
+          <t>$410,776</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.09%</t>
+          <t>-23.10%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-70.83%</t>
+          <t>-110.65%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -783,423 +783,423 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Clay County</t>
+          <t>Claiborne County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$1,823,373</t>
+          <t>$15,223</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>19.85%</t>
+          <t>-5.66%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-33.91%</t>
+          <t>-34.28%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Coahoma County</t>
+          <t>Clarke County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$24,818,794</t>
+          <t>$2,540,626</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.89%</t>
+          <t>6.09%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-32.54%</t>
+          <t>-70.83%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>72.73%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Copiah County</t>
+          <t>Clay County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$2,819,770</t>
+          <t>$1,823,373</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9.04%</t>
+          <t>19.85%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-14.66%</t>
+          <t>-33.91%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Covington County</t>
+          <t>Coahoma County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$50,000</t>
+          <t>$24,818,794</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>32.71%</t>
+          <t>2.89%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24.73%</t>
+          <t>-32.54%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>72.73%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DeSoto County</t>
+          <t>Copiah County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$3,226,990</t>
+          <t>$2,819,770</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14.08%</t>
+          <t>9.04%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-24.67%</t>
+          <t>-14.66%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Forrest County</t>
+          <t>Covington County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$29,958,108</t>
+          <t>$50,000</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5.14%</t>
+          <t>32.71%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-17.15%</t>
+          <t>24.73%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>72.22%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>George County</t>
+          <t>DeSoto County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$1,405,836</t>
+          <t>$3,226,990</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7.80%</t>
+          <t>14.08%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-77.40%</t>
+          <t>-24.67%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Greene County</t>
+          <t>Forrest County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$126,495</t>
+          <t>$29,958,108</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23.95%</t>
+          <t>5.14%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-76.05%</t>
+          <t>-17.15%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>72.22%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Hancock County</t>
+          <t>George County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$3,152,186</t>
+          <t>$1,405,836</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.55%</t>
+          <t>7.80%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-85.83%</t>
+          <t>-77.40%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Harrison County</t>
+          <t>Greene County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$73,861,074</t>
+          <t>$126,495</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-0.47%</t>
+          <t>23.95%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-36.96%</t>
+          <t>-76.05%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>80.56%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hinds County</t>
+          <t>Hancock County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$228,414,839</t>
+          <t>$3,152,186</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6.94%</t>
+          <t>2.55%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-32.82%</t>
+          <t>-85.83%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>69.53%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Holmes County</t>
+          <t>Harrison County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$4,714,639</t>
+          <t>$73,861,074</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.62%</t>
+          <t>-0.47%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-70.73%</t>
+          <t>-36.96%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>80.56%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Humphreys County</t>
+          <t>Hinds County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>128</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$35,400</t>
+          <t>$228,414,839</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>18.88%</t>
+          <t>6.94%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.55%</t>
+          <t>-32.82%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>69.53%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Itawamba County</t>
+          <t>Holmes County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1209,125 +1209,125 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$3,158,828</t>
+          <t>$4,714,639</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>33.73%</t>
+          <t>0.62%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>8.15%</t>
+          <t>-70.73%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Jackson County</t>
+          <t>Humphreys County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$6,144,167</t>
+          <t>$35,400</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.62%</t>
+          <t>18.88%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-35.26%</t>
+          <t>3.55%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>81.82%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Jasper County</t>
+          <t>Itawamba County</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$5,000</t>
+          <t>$3,158,828</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>15.97%</t>
+          <t>33.73%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12.21%</t>
+          <t>8.15%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Jefferson County</t>
+          <t>Jackson County</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$6,761,559</t>
+          <t>$6,144,167</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>1.62%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-100.00%</t>
+          <t>-35.26%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>81.82%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Jefferson Davis County</t>
+          <t>Jasper County</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1337,17 +1337,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$134,438</t>
+          <t>$5,000</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20.56%</t>
+          <t>15.97%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>9.96%</t>
+          <t>12.21%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1359,539 +1359,539 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Jones County</t>
+          <t>Jefferson County</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$7,782,952</t>
+          <t>$6,761,559</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>11.93%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-27.69%</t>
+          <t>-100.00%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Kemper County</t>
+          <t>Jefferson Davis County</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$3,578,185</t>
+          <t>$134,438</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8.82%</t>
+          <t>20.56%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-38.89%</t>
+          <t>9.96%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Lafayette County</t>
+          <t>Jones County</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$24,308,681</t>
+          <t>$7,782,952</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>10.65%</t>
+          <t>11.93%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-48.35%</t>
+          <t>-27.69%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>88.89%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Lamar County</t>
+          <t>Kemper County</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$941,419</t>
+          <t>$3,578,185</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>15.47%</t>
+          <t>8.82%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-16.16%</t>
+          <t>-38.89%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Lauderdale County</t>
+          <t>Lafayette County</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$24,355,225</t>
+          <t>$24,308,681</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-0.73%</t>
+          <t>10.65%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-16.40%</t>
+          <t>-48.35%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>84.62%</t>
+          <t>88.89%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Leake County</t>
+          <t>Lamar County</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$4,846,990</t>
+          <t>$941,419</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>16.75%</t>
+          <t>15.47%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-28.96%</t>
+          <t>-16.16%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Lee County</t>
+          <t>Lauderdale County</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$20,215,569</t>
+          <t>$24,355,225</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>7.80%</t>
+          <t>-0.73%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-8.60%</t>
+          <t>-16.40%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>84.62%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Leflore County</t>
+          <t>Leake County</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$543,423</t>
+          <t>$4,846,990</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>30.89%</t>
+          <t>16.75%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>13.53%</t>
+          <t>-28.96%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Lincoln County</t>
+          <t>Lee County</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$83,838</t>
+          <t>$20,215,569</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-23.94%</t>
+          <t>7.80%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-34.82%</t>
+          <t>-8.60%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Lowndes County</t>
+          <t>Leflore County</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$1,911,576</t>
+          <t>$543,423</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5.47%</t>
+          <t>30.89%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-14.25%</t>
+          <t>13.53%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>81.82%</t>
+          <t>14.29%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Madison County</t>
+          <t>Lincoln County</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$41,705,935</t>
+          <t>$83,838</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12.72%</t>
+          <t>-23.94%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-15.54%</t>
+          <t>-34.82%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>74.07%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Marion County</t>
+          <t>Lowndes County</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$16,738,039</t>
+          <t>$1,911,576</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>7.83%</t>
+          <t>5.47%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-40.80%</t>
+          <t>-14.25%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>81.82%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Marshall County</t>
+          <t>Madison County</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$57,068,219</t>
+          <t>$41,705,935</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>6.89%</t>
+          <t>12.72%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-32.96%</t>
+          <t>-15.54%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>74.07%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Monroe County</t>
+          <t>Marion County</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$4,852,567</t>
+          <t>$16,738,039</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>13.32%</t>
+          <t>7.83%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-37.12%</t>
+          <t>-40.80%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Montgomery County</t>
+          <t>Marshall County</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$12,797,882</t>
+          <t>$57,068,219</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4.31%</t>
+          <t>6.89%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-84.76%</t>
+          <t>-32.96%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Neshoba County</t>
+          <t>Monroe County</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$9,927</t>
+          <t>$4,852,567</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>9.63%</t>
+          <t>13.32%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.11%</t>
+          <t>-37.12%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Newton County</t>
+          <t>Montgomery County</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$3,289,942</t>
+          <t>$12,797,882</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>7.53%</t>
+          <t>4.31%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-0.91%</t>
+          <t>-84.76%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1903,91 +1903,91 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Noxubee County</t>
+          <t>Neshoba County</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$1,249,789</t>
+          <t>$9,927</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10.35%</t>
+          <t>9.63%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-31.56%</t>
+          <t>1.11%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Oktibbeha County</t>
+          <t>Newton County</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$7,153,379</t>
+          <t>$3,289,942</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>15.49%</t>
+          <t>7.53%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-15.89%</t>
+          <t>-0.91%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Panola County</t>
+          <t>Noxubee County</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$556,215</t>
+          <t>$1,249,789</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2.87%</t>
+          <t>10.35%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-14.67%</t>
+          <t>-31.56%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1999,59 +1999,59 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Pearl River County</t>
+          <t>Oktibbeha County</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$811,595</t>
+          <t>$7,153,379</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>14.17%</t>
+          <t>15.49%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-0.68%</t>
+          <t>-15.89%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>55.56%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Perry County</t>
+          <t>Panola County</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$1,538,921</t>
+          <t>$556,215</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6.46%</t>
+          <t>2.87%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-7.03%</t>
+          <t>-14.67%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2063,59 +2063,59 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Pike County</t>
+          <t>Pearl River County</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$4,536,429</t>
+          <t>$811,595</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>9.14%</t>
+          <t>14.17%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-50.12%</t>
+          <t>-0.68%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>57.14%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Prentiss County</t>
+          <t>Perry County</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$678,729</t>
+          <t>$1,538,921</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>18.89%</t>
+          <t>6.46%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-61.84%</t>
+          <t>-7.03%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2127,91 +2127,91 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Quitman County</t>
+          <t>Pike County</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$65,195</t>
+          <t>$4,536,429</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.99%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-98.03%</t>
+          <t>-50.12%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Rankin County</t>
+          <t>Prentiss County</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$62,938,435</t>
+          <t>$678,729</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>6.96%</t>
+          <t>18.89%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-36.73%</t>
+          <t>-61.84%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>70.37%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sharkey County</t>
+          <t>Quitman County</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$1,465,960</t>
+          <t>$65,195</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>16.62%</t>
+          <t>0.99%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-61.90%</t>
+          <t>-98.03%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2223,39 +2223,39 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Simpson County</t>
+          <t>Rankin County</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$10,925,303</t>
+          <t>$62,938,435</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>12.00%</t>
+          <t>6.96%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-5.24%</t>
+          <t>-36.73%</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>70.37%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Stone County</t>
+          <t>Sharkey County</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2265,17 +2265,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$96,540</t>
+          <t>$1,465,960</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.45%</t>
+          <t>16.62%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-50.32%</t>
+          <t>-61.90%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2287,59 +2287,59 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sunflower County</t>
+          <t>Simpson County</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$10,470,374</t>
+          <t>$10,925,303</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2.40%</t>
+          <t>12.00%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-40.69%</t>
+          <t>-5.24%</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Tallahatchie County</t>
+          <t>Stone County</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$5,237,295</t>
+          <t>$96,540</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>9.68%</t>
+          <t>1.45%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-49.36%</t>
+          <t>-50.32%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2351,155 +2351,155 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Tate County</t>
+          <t>Sunflower County</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$931,124</t>
+          <t>$10,470,374</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>21.08%</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>15.59%</t>
+          <t>-40.69%</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Tippah County</t>
+          <t>Tallahatchie County</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$1,425,542</t>
+          <t>$5,237,295</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-0.80%</t>
+          <t>9.68%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-6.52%</t>
+          <t>-49.36%</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Tishomingo County</t>
+          <t>Tate County</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$113,668</t>
+          <t>$931,124</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>11.93%</t>
+          <t>21.08%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-88.07%</t>
+          <t>15.59%</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Tunica County</t>
+          <t>Tippah County</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$332,948</t>
+          <t>$1,425,542</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-1.29%</t>
+          <t>-0.80%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-46.54%</t>
+          <t>-6.52%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Union County</t>
+          <t>Tishomingo County</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$455,262</t>
+          <t>$113,668</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3.08%</t>
+          <t>11.93%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>-12.98%</t>
+          <t>-88.07%</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2511,135 +2511,135 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Warren County</t>
+          <t>Tunica County</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$1,584,140</t>
+          <t>$332,948</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.48%</t>
+          <t>-1.29%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-59.49%</t>
+          <t>-46.54%</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Washington County</t>
+          <t>Union County</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$70,592,071</t>
+          <t>$455,262</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2.04%</t>
+          <t>3.08%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-26.29%</t>
+          <t>-12.98%</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Wayne County</t>
+          <t>Warren County</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$182,316</t>
+          <t>$1,584,140</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>27.94%</t>
+          <t>1.48%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>-72.06%</t>
+          <t>-59.49%</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Wilkinson County</t>
+          <t>Washington County</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$1,245,987</t>
+          <t>$70,592,071</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>5.71%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>-59.49%</t>
+          <t>-26.29%</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Winston County</t>
+          <t>Wayne County</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2649,17 +2649,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$3,955,030</t>
+          <t>$182,316</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.90%</t>
+          <t>27.94%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-11.45%</t>
+          <t>-72.06%</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2671,27 +2671,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Yazoo County</t>
+          <t>Wilkinson County</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$2,170,106</t>
+          <t>$1,245,987</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1.38%</t>
+          <t>5.71%</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>-42.03%</t>
+          <t>-59.49%</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2703,160 +2703,64 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Issaquena County</t>
+          <t>Winston County</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$3,955,030</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.90%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-11.45%</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Yalobusha County</t>
+          <t>Yazoo County</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$2,170,106</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>1.38%</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-42.03%</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Grenada County</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Walthall County</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>545</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>$855,145,071</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>6.46%</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>-26.56%</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>74.13%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2771,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2876,192 +2780,224 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$128,646,752</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.58%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-16.40%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>74.26%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>Mississippi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>545</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$401,302,418</t>
+          <t>$855,145,071</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.14%</t>
+          <t>6.46%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-37.90%</t>
+          <t>-26.56%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>76.62%</t>
+          <t>74.13%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$199,847,341</t>
+          <t>$128,646,752</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.71%</t>
+          <t>9.58%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-15.09%</t>
+          <t>-16.40%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>69.08%</t>
+          <t>74.26%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>201</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$125,348,560</t>
+          <t>$401,302,418</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.18%</t>
+          <t>4.14%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-30.41%</t>
+          <t>-37.90%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>76.92%</t>
+          <t>76.62%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$855,145,071</t>
+          <t>$199,847,341</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.46%</t>
+          <t>7.71%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-26.56%</t>
+          <t>-15.09%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>74.13%</t>
+          <t>69.08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4th Congressional district</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$125,348,560</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.18%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-30.41%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>76.92%</t>
         </is>
       </c>
     </row>
@@ -3086,34 +3022,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3145,128 +3081,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$155,097,379</t>
+          <t>$526,132,571</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.50%</t>
+          <t>6.46%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-30.14%</t>
+          <t>-10.09%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>76.71%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$39,072,904</t>
+          <t>$155,097,379</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.70%</t>
+          <t>6.50%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-34.21%</t>
+          <t>-30.14%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>77.66%</t>
+          <t>76.71%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$108,909,533</t>
+          <t>$39,072,904</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.16%</t>
+          <t>4.70%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-18.21%</t>
+          <t>-34.21%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>77.66%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$526,132,571</t>
+          <t>$108,909,533</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.46%</t>
+          <t>8.16%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-10.09%</t>
+          <t>-18.21%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3291,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3414,7 +3350,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3446,7 +3382,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3478,7 +3414,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3542,7 +3478,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3574,7 +3510,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3606,160 +3542,160 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mutual/Membership Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$500,000</t>
+          <t>$63,425,152</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.93%</t>
+          <t>3.32%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11.27%</t>
+          <t>-44.25%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>74.51%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$63,425,152</t>
+          <t>$7,808,368</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.32%</t>
+          <t>6.52%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-44.25%</t>
+          <t>-8.44%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>74.51%</t>
+          <t>61.90%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Mutual/membership benefit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$7,808,368</t>
+          <t>$500,000</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.52%</t>
+          <t>89.93%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-8.44%</t>
+          <t>11.27%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>61.90%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$269,233,818</t>
+          <t>$35,807,809</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.12%</t>
+          <t>0.82%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-35.32%</t>
+          <t>-14.67%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>73.55%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>121</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$35,807,809</t>
+          <t>$269,233,818</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.82%</t>
+          <t>5.12%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-14.67%</t>
+          <t>-35.32%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>73.55%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/mississippi_overview.xlsx
+++ b/data/processed/state_overviews/mississippi_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>74.13%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>545</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$855,145,071</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>6.46%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-26.56%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>74.13%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>74.13%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>545</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$855,145,071</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>6.46%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-26.56%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>74.13%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$4,610,560</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>-26.48%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-92.57%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$2,058,672</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>22.11%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-33.89%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$3,434,150</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>15.62%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-46.86%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$2,742,593</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>7.19%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-82.65%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$6,007,176</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>4.11%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-13.55%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$26,871,077</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>6.20%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-8.33%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$100,000</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>36.57%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-54.17%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$410,776</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>-23.10%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-110.65%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$15,223</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>-5.66%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-34.28%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$2,540,626</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>6.09%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-70.83%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$1,823,373</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>19.85%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-33.91%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>72.73%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$24,818,794</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2.89%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-32.54%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>72.73%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$2,819,770</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>9.04%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-14.66%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$50,000</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>32.71%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>24.73%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$3,226,990</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>14.08%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-24.67%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>72.22%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$29,958,108</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>5.14%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-17.15%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>72.22%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$1,405,836</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>7.80%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-77.40%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$126,495</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>23.95%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-76.05%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$3,152,186</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2.55%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-85.83%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>80.56%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$73,861,074</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>-0.47%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-36.96%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>80.56%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>69.53%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>128</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$228,414,839</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>6.94%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-32.82%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>69.53%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$4,714,639</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>0.62%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-70.73%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$35,400</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>18.88%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>3.55%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$3,158,828</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>33.73%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>8.15%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>81.82%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$6,144,167</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1.62%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-35.26%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>81.82%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$5,000</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>15.97%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>12.21%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$6,761,559</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>-100.00%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$134,438</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>20.56%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>9.96%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$7,782,952</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>11.93%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-27.69%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$3,578,185</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>8.82%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>-38.89%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>88.89%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$24,308,681</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>10.65%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>-48.35%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>88.89%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$941,419</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>15.47%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>-16.16%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>84.62%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$24,355,225</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>-0.73%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-16.40%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>84.62%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$4,846,990</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>16.75%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>-28.96%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$20,215,569</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>7.80%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-8.60%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$543,423</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>30.89%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>13.53%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>14.29%</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>$83,838</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>-23.94%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>-34.82%</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1716,27 +1716,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>81.82%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>$1,911,576</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>5.47%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>-14.25%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>81.82%</t>
         </is>
       </c>
     </row>
@@ -1748,27 +1748,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>74.07%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>$41,705,935</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>12.72%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>-15.54%</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>74.07%</t>
         </is>
       </c>
     </row>
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>$16,738,039</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>7.83%</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>-40.80%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>$57,068,219</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>6.89%</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>-32.96%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>$4,852,567</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>13.32%</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>-37.12%</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>$12,797,882</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>4.31%</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>-84.76%</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1908,27 +1908,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>$9,927</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>9.63%</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1.11%</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1940,27 +1940,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>$3,289,942</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>7.53%</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>-0.91%</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1972,27 +1972,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>$1,249,789</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>10.35%</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>-31.56%</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2004,27 +2004,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>$7,153,379</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>15.49%</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>-15.89%</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>55.56%</t>
         </is>
       </c>
     </row>
@@ -2036,27 +2036,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>$556,215</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2.87%</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>-14.67%</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2068,27 +2068,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>$811,595</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>14.17%</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>-0.68%</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>57.14%</t>
         </is>
       </c>
     </row>
@@ -2100,27 +2100,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>$1,538,921</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>6.46%</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>-7.03%</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2132,27 +2132,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>$4,536,429</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>9.14%</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>-50.12%</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2164,27 +2164,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>$678,729</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>18.89%</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>-61.84%</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2196,27 +2196,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>$65,195</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>0.99%</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>-98.03%</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2228,27 +2228,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>70.37%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>$62,938,435</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>6.96%</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>-36.73%</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>70.37%</t>
         </is>
       </c>
     </row>
@@ -2260,27 +2260,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>$1,465,960</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>16.62%</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>-61.90%</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2292,27 +2292,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>$10,925,303</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>12.00%</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>-5.24%</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2324,27 +2324,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>$96,540</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1.45%</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>-50.32%</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>$10,470,374</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2.40%</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>-40.69%</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -2388,27 +2388,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>$5,237,295</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>9.68%</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>-49.36%</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2420,27 +2420,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>$931,124</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>21.08%</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>15.59%</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2452,27 +2452,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>$1,425,542</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>-0.80%</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>-6.52%</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2484,27 +2484,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>$113,668</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>11.93%</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>-88.07%</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2516,27 +2516,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>$332,948</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>-1.29%</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>-46.54%</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2548,27 +2548,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>$455,262</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>3.08%</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>-12.98%</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2580,27 +2580,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>$1,584,140</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1.48%</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>-59.49%</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2612,27 +2612,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>$70,592,071</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2.04%</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>-26.29%</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2644,27 +2644,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>$182,316</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>27.94%</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>-72.06%</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2676,27 +2676,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>$1,245,987</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>5.71%</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>-59.49%</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2708,27 +2708,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>$3,955,030</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>0.90%</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>-11.45%</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2740,27 +2740,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>$2,170,106</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1.38%</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>-42.03%</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2785,27 +2785,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -2817,27 +2817,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -2849,155 +2849,155 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>74.13%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>545</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$855,145,071</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>6.46%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-26.56%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>74.13%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>74.26%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>101</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$128,646,752</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>9.58%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-16.40%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>74.26%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>76.62%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>201</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$401,302,418</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>4.14%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-37.90%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>76.62%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>69.08%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>152</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$199,847,341</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>7.71%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-15.09%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>69.08%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>76.92%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>91</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$125,348,560</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>6.18%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-30.41%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>76.92%</t>
         </is>
       </c>
     </row>
@@ -3022,187 +3022,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>69.36%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>173</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$22,129,742</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>5.47%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-25.42%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>69.36%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>76.71%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$526,132,571</t>
+          <t>146</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.46%</t>
+          <t>$155,097,379</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-10.09%</t>
+          <t>6.50%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>-30.14%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>77.66%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$155,097,379</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.50%</t>
+          <t>$39,072,904</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-30.14%</t>
+          <t>4.70%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>76.71%</t>
+          <t>-34.21%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>71.43%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$39,072,904</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.70%</t>
+          <t>$108,909,533</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-34.21%</t>
+          <t>8.16%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>77.66%</t>
+          <t>-18.21%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>80.00%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$108,909,533</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.16%</t>
+          <t>$526,132,571</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-18.21%</t>
+          <t>6.46%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>-10.09%</t>
         </is>
       </c>
     </row>
@@ -3214,27 +3214,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>42</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$3,802,942</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>14.43%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-27.98%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -3246,27 +3246,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>74.13%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>545</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$855,145,071</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>6.46%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-26.56%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>74.13%</t>
         </is>
       </c>
     </row>
@@ -3291,155 +3291,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$16,463,273</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.51%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-20.81%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>71.15%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>52</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$108,083,119</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.87%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-16.28%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>71.15%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>56.00%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$9,940,110</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>10.88%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-1.96%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>56.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>86.89%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>61</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$174,083,293</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>6.87%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-44.82%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>86.89%</t>
         </is>
       </c>
     </row>
@@ -3451,251 +3451,251 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$23,854,956</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>9.75%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-2.79%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>77.78%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>72.90%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>155</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$144,828,624</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>7.80%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-27.34%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>72.90%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$1,116,549</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>15.82%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-83.54%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Mutual/Membership Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$63,425,152</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.32%</t>
+          <t>$500,000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-44.25%</t>
+          <t>89.93%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>74.51%</t>
+          <t>11.27%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>74.51%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$7,808,368</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.52%</t>
+          <t>$63,425,152</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-8.44%</t>
+          <t>3.32%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>61.90%</t>
+          <t>-44.25%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mutual/membership benefit</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>61.90%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$500,000</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.93%</t>
+          <t>$7,808,368</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11.27%</t>
+          <t>6.52%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-8.44%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>73.55%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$35,807,809</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.82%</t>
+          <t>$269,233,818</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-14.67%</t>
+          <t>5.12%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>-35.32%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>85.71%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$269,233,818</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.12%</t>
+          <t>$35,807,809</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-35.32%</t>
+          <t>0.82%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>73.55%</t>
+          <t>-14.67%</t>
         </is>
       </c>
     </row>
@@ -3707,27 +3707,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>74.13%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>545</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$855,145,071</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>6.46%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-26.56%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>74.13%</t>
         </is>
       </c>
     </row>
